--- a/Cleaned_DS_Jobs.xlsx
+++ b/Cleaned_DS_Jobs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivam/Downloads/epgdaba/Term 1/Data Visualization/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76996673-7753-8C4F-B653-73659090E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CD23F-A19F-B44D-8187-F77434B77F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
   </bookViews>
@@ -17,10 +17,7 @@
     <sheet name="Work Division" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Data Set'!$A$1:$W$652</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Final Data Set'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Final Data Set'!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Final Data Set'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final Data Set'!$H$1:$H$652</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2800,7 +2797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09EAAF-5A29-4A06-B731-47817EC13815}">
   <dimension ref="A1:W652"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3655,7 +3654,7 @@
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -11040,7 +11039,7 @@
       </c>
       <c r="O116">
         <f ca="1">RANDBETWEEN(6,51)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -12461,7 +12460,7 @@
       </c>
       <c r="O136">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -15657,7 +15656,7 @@
       </c>
       <c r="O181">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -23610,7 +23609,7 @@
       </c>
       <c r="O293">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="P293">
         <v>1</v>
@@ -30214,7 +30213,7 @@
       </c>
       <c r="O386">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P386">
         <v>1</v>
@@ -34546,7 +34545,7 @@
       </c>
       <c r="O447">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P447">
         <v>0</v>
@@ -34689,7 +34688,7 @@
       </c>
       <c r="O449">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P449">
         <v>1</v>
@@ -37317,7 +37316,7 @@
       </c>
       <c r="O486">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P486">
         <v>0</v>
@@ -47542,7 +47541,7 @@
       </c>
       <c r="O630">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P630">
         <v>1</v>
@@ -49132,6 +49131,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H652" xr:uid="{FC09EAAF-5A29-4A06-B731-47817EC13815}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Cleaned_DS_Jobs.xlsx
+++ b/Cleaned_DS_Jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivam/Downloads/epgdaba/Term 1/Data Visualization/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CD23F-A19F-B44D-8187-F77434B77F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12C656-986F-DA48-88C9-2AFCF69816B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
   </bookViews>
@@ -2798,7 +2798,7 @@
   <dimension ref="A1:W652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="O116">
         <f ca="1">RANDBETWEEN(6,51)</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="O136">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="O181">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="O293">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P293">
         <v>1</v>
@@ -30213,7 +30213,7 @@
       </c>
       <c r="O386">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="P386">
         <v>1</v>
@@ -34545,7 +34545,7 @@
       </c>
       <c r="O447">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="P447">
         <v>0</v>
@@ -34688,7 +34688,7 @@
       </c>
       <c r="O449">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="P449">
         <v>1</v>
@@ -37316,7 +37316,7 @@
       </c>
       <c r="O486">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P486">
         <v>0</v>
@@ -47541,7 +47541,7 @@
       </c>
       <c r="O630">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="P630">
         <v>1</v>
